--- a/downloaded_files/PHYS102_Lecture-35332.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>ِAhmed Taha  Ahmed Taha Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
     <x:t>1240024</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -866,7 +857,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -898,7 +889,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45912.0995508449</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -930,7 +921,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.0995508449</x:v>
+        <x:v>45907.6689754977</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -962,7 +953,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6689754977</x:v>
+        <x:v>45907.7052314005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -994,7 +985,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.7052314005</x:v>
+        <x:v>45908.4208417477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4208417477</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1049,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45909.6278669329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6278669329</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6825251968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6825251968</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.4155615741</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4155615741</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4200483796</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4200483796</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6648391551</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35332.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Amina Amgad Rakha Ahmed Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240217</x:t>
   </x:si>
   <x:si>
@@ -132,6 +123,15 @@
     <x:t>Dai Khaled Mohamed Abdelsalam Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240233</x:t>
   </x:si>
   <x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد  وليد  عبد الفتاح ليمونة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Walid Abdelfatah laimona</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +753,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="38.740625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="58.230625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -953,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.7052314005</x:v>
+        <x:v>45908.4208417477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4208417477</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45909.6278669329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.6278669329</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45927.4540981134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45927.43550625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4155615741</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45908.4155615741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4200483796</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45908.4200483796</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35332.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Dai Khaled Mohamed Abdelsalam Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240233</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1154,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4540981134</x:v>
+        <x:v>45907.6825251968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6825251968</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45927.43550625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.43550625</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.4155615741</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4155615741</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4200483796</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4200483796</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6648391551</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35332.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Walid Abdelfatah laimona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4155615741</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45908.4155615741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4200483796</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45908.4200483796</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35332.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Hazem Moataz-Bellah Elhariry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين حسام حسين عمران عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
   </x:si>
   <x:si>
     <x:t>1240305</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -994,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45935.4531275116</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6278669329</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45909.6278669329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6825251968</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6825251968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.43550625</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45927.43550625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4155615741</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45908.4155615741</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4200483796</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45908.4200483796</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Lecture-35332.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Walid Abdelfatah laimona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.4155615741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4155615741</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4200483796</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4200483796</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6648391551</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
